--- a/sample/data.xlsx
+++ b/sample/data.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\mic-drop-results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mic-drop-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221FEE68-FBF3-44D5-8F30-262A5B0C534E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CD4213-DD7E-4A8D-8676-A8B604F46F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Group 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Group 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Group 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="186">
   <si>
     <t>DiorParty</t>
   </si>
@@ -913,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,4 +2073,1800 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5524908E-AB06-4075-B7D1-05FF48BD6998}">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="12" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6.75</v>
+      </c>
+      <c r="B2">
+        <v>0.433</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>6.25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9.67</v>
+      </c>
+      <c r="B3">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>9.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3">
+        <v>9.5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7.58</v>
+      </c>
+      <c r="B4">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>7.25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4">
+        <v>6.5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8.17</v>
+      </c>
+      <c r="B5">
+        <v>2.0209999999999999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5">
+        <v>8.5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8.83</v>
+      </c>
+      <c r="B6">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>9.75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6">
+        <v>9.75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6.42</v>
+      </c>
+      <c r="B7">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>5.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7">
+        <v>6.75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9.42</v>
+      </c>
+      <c r="B8">
+        <v>0.629</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>9.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8">
+        <v>8.75</v>
+      </c>
+      <c r="L8" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4.25</v>
+      </c>
+      <c r="B9">
+        <v>0.433</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K9">
+        <v>4.75</v>
+      </c>
+      <c r="L9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>9.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10">
+        <v>9.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6.42</v>
+      </c>
+      <c r="B11">
+        <v>2.919</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>3.25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>142</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5.75</v>
+      </c>
+      <c r="B12">
+        <v>3.363</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>6.75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12">
+        <v>8.5</v>
+      </c>
+      <c r="L12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9.67</v>
+      </c>
+      <c r="B13">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7.5</v>
+      </c>
+      <c r="B14">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>8.75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14">
+        <v>6.75</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7.75</v>
+      </c>
+      <c r="B15">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <v>8.75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>7.5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7.25</v>
+      </c>
+      <c r="B16">
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16">
+        <v>6.75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>0.25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17">
+        <v>9.25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17">
+        <v>8.75</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6.25</v>
+      </c>
+      <c r="B18">
+        <v>2.4620000000000002</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18">
+        <v>3.5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18">
+        <v>8.25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8.83</v>
+      </c>
+      <c r="B19">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <v>8.5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19">
+        <v>9.5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19">
+        <v>8.5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7.33</v>
+      </c>
+      <c r="B20">
+        <v>2.0209999999999999</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20">
+        <v>8.5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20">
+        <v>8.5</v>
+      </c>
+      <c r="L20" t="s">
+        <v>158</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5.67</v>
+      </c>
+      <c r="B21">
+        <v>1.893</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21">
+        <v>6.5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21">
+        <v>3.5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5131EAF8-4E55-4F42-9BBF-0022A9DAAD9D}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="12" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6.75</v>
+      </c>
+      <c r="B2">
+        <v>0.433</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>6.25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9.67</v>
+      </c>
+      <c r="B3">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>9.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3">
+        <v>9.5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9.42</v>
+      </c>
+      <c r="B4">
+        <v>0.629</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>9.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4">
+        <v>8.75</v>
+      </c>
+      <c r="L4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4.25</v>
+      </c>
+      <c r="B5">
+        <v>0.433</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5">
+        <v>4.75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>9.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6">
+        <v>9.5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6.42</v>
+      </c>
+      <c r="B7">
+        <v>2.919</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>3.25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5.75</v>
+      </c>
+      <c r="B8">
+        <v>3.363</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>6.75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8">
+        <v>8.5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9.67</v>
+      </c>
+      <c r="B9">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>146</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7.5</v>
+      </c>
+      <c r="B10">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>8.75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>6.75</v>
+      </c>
+      <c r="L10" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7.75</v>
+      </c>
+      <c r="B11">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>8.75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>7.5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>149</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7.25</v>
+      </c>
+      <c r="B12">
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12">
+        <v>6.75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>151</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0.25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13">
+        <v>9.25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13">
+        <v>8.75</v>
+      </c>
+      <c r="L13" t="s">
+        <v>152</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7.33</v>
+      </c>
+      <c r="B14">
+        <v>2.0209999999999999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14">
+        <v>8.5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14">
+        <v>8.5</v>
+      </c>
+      <c r="L14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7.58</v>
+      </c>
+      <c r="B15">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15">
+        <v>6.75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15">
+        <v>8.75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15">
+        <v>7.25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>1.323</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16">
+        <v>8.5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16">
+        <v>6.5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9.08</v>
+      </c>
+      <c r="B17">
+        <v>1.377</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17">
+        <v>7.5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17">
+        <v>9.75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8.17</v>
+      </c>
+      <c r="B18">
+        <v>2.0209999999999999</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18">
+        <v>8.5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8.75</v>
+      </c>
+      <c r="B19">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19">
+        <v>9.5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19">
+        <v>8.25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19">
+        <v>8.5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20">
+        <v>7.25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20">
+        <v>7.75</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8.92</v>
+      </c>
+      <c r="B21">
+        <v>1.01</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21">
+        <v>9.5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21">
+        <v>9.5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21">
+        <v>7.75</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5.67</v>
+      </c>
+      <c r="B22">
+        <v>1.893</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22">
+        <v>6.5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22">
+        <v>3.5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22">
+        <v>7</v>
+      </c>
+      <c r="L22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>